--- a/wikipedia_validation_sheets/Parry–Romberg syndrome DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Parry–Romberg syndrome DISNET VALIDATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{670A9BE5-B1DC-BE41-9472-4764226B6CAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAF8052-9702-5444-91C4-D0DF762CC48A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="460" windowWidth="20500" windowHeight="15460" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="156">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -396,18 +396,12 @@
     <t>LOSS OF HAIR</t>
   </si>
   <si>
-    <t>PTOSIS</t>
-  </si>
-  <si>
     <t>REDNESS OF THE CONJUNCTIVA</t>
   </si>
   <si>
     <t>HETEROCHROMIA OF THE IRIS</t>
   </si>
   <si>
-    <t>DELAYED ERUPTION</t>
-  </si>
-  <si>
     <t>DENTAL ROOT EXPOSURE</t>
   </si>
   <si>
@@ -433,6 +427,72 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>atrophy</t>
+  </si>
+  <si>
+    <t>Atrophic</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>pathogenesis</t>
+  </si>
+  <si>
+    <t>Pathogenesis</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>ptosis</t>
+  </si>
+  <si>
+    <t>Blepharoptosis</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>abnormalities</t>
+  </si>
+  <si>
+    <t>Congenital abnormality</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>delayed, eruption</t>
+  </si>
+  <si>
+    <t>Late tooth eruption</t>
+  </si>
+  <si>
+    <t>constriction</t>
+  </si>
+  <si>
+    <t>Stenosis</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>Recession</t>
+  </si>
+  <si>
+    <t>facial, asymmetry</t>
+  </si>
+  <si>
+    <t>Facial asymmetry</t>
   </si>
 </sst>
 </file>
@@ -799,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -883,6 +943,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,7 +972,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1230,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1249,34 +1322,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1388,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1475,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1620,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1678,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1852,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1939,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1968,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2725,219 +2798,300 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="34" t="s">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="35" t="s">
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="20" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="42" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -2956,8 +3110,8 @@
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="42" t="s">
-        <v>131</v>
+      <c r="B65" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -2976,8 +3130,8 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="42" t="s">
-        <v>132</v>
+      <c r="B66" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -2995,25 +3149,219 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="36" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3022,10 +3370,13 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C52">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C61">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B67" r:id="rId1" tooltip="Extraocular muscles" display="https://en.wikipedia.org/wiki/Extraocular_muscles" xr:uid="{B5B303E5-9731-4DA8-A69A-FE2B08BFB65D}"/>
+    <hyperlink ref="B74" r:id="rId1" tooltip="Extraocular muscles" display="https://en.wikipedia.org/wiki/Extraocular_muscles" xr:uid="{B5B303E5-9731-4DA8-A69A-FE2B08BFB65D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
